--- a/SurvivalGame/Assets/xlsxData/Gun.xlsx
+++ b/SurvivalGame/Assets/xlsxData/Gun.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\File\BS\Project\Gun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\build_school\project\finalProject1\SurvivalGameWeb\SurvivalGame\Assets\xlsxData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -846,20 +846,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
     <col min="7" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -903,7 +905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -947,7 +949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -991,7 +993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1079,7 +1081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1123,7 +1125,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1167,7 +1169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>88</v>
       </c>

--- a/SurvivalGame/Assets/xlsxData/Gun.xlsx
+++ b/SurvivalGame/Assets/xlsxData/Gun.xlsx
@@ -847,7 +847,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
